--- a/DDF/Phase2/TY_08/TestCase_Data.xlsx
+++ b/DDF/Phase2/TY_08/TestCase_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejashwini\Downloads\Bimbo\Bimbo\Bimbo Mobile\DDF\Phase2\TY_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21-02-22\Bimbo Mobile-TY\DDF\Phase2\TY_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>TC_19</t>
   </si>
@@ -185,12 +185,6 @@
     <t>Min : 2</t>
   </si>
   <si>
-    <t>003_SD_MUMB_PRO</t>
-  </si>
-  <si>
-    <t>011_SD_MUMB_PRO</t>
-  </si>
-  <si>
     <t>0007_SD_MUMB_PROO</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>012_SD_MUMB_PRO</t>
   </si>
 </sst>
 </file>
@@ -531,10 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -838,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,7 +927,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1">
         <v>123456</v>
@@ -991,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1006,10 +1004,10 @@
         <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,7 +1027,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
